--- a/StructureDefinition-ext-R5-AdministrableProductDefinition.xlsx
+++ b/StructureDefinition-ext-R5-AdministrableProductDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -436,7 +436,8 @@
     <t>References a product from which one or more of the constituent parts of that product can be prepared and used as described by this administrable product.  If this administrable product describes the administration of a crushed tablet, the 'formOf' would be the product representing a distribution containing tablets and possibly also a cream.  This is distinct from the 'producedFrom' which refers to the specific components of the product that are used in this preparation, rather than the product as a whole.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.formOf` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdministrableProductDefinition.formOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AdministrableProductDefinition.formOf` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:formOf.id</t>
@@ -540,7 +541,8 @@
     <t>Indicates the specific manufactured items that are part of the 'formOf' product that are used in the preparation of this specific administrable form.  In some cases, an administrable form might use all of the items from the overall product (or there might only be one item), while in other cases, an administrable form might use only a subset of the items available in the overall product.  For example, an administrable form might involve combining a liquid and a powder available as part of an overall product, but not involve applying the also supplied cream.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.producedFrom` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdministrableProductDefinition.producedFrom` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AdministrableProductDefinition.producedFrom` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:producedFrom.id</t>
@@ -598,7 +600,8 @@
     <t>A device that is integral to the medicinal product, in effect being considered as an "ingredient" of the medicinal product. This is not intended for devices that are just co-packaged.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.device` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdministrableProductDefinition.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AdministrableProductDefinition.device` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:device.id</t>

--- a/StructureDefinition-ext-R5-AdministrableProductDefinition.xlsx
+++ b/StructureDefinition-ext-R5-AdministrableProductDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-AdministrableProductDefinition.xlsx
+++ b/StructureDefinition-ext-R5-AdministrableProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="372">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -408,15 +408,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-publication-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -452,7 +443,7 @@
     <t>Extension.extension:formOf.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct)
 </t>
   </si>
   <si>
@@ -493,7 +484,7 @@
     <t>Dose form for a medication, in the form suitable for administering to the patient, after mixing, where necessary.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-administrable-dose-form-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-administrable-dose-form-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:unitOfPresentation</t>
@@ -526,7 +517,7 @@
     <t>The presentation type in which an administrable medicinal product is given to a patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-unit-of-presentation-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-unit-of-presentation-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:producedFrom</t>
@@ -557,7 +548,7 @@
     <t>Extension.extension:producedFrom.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ManufacturedItemDefinition|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ManufacturedItemDefinition|Basic)
 </t>
   </si>
   <si>
@@ -616,7 +607,7 @@
     <t>Extension.extension:device.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition)
 </t>
   </si>
   <si>
@@ -741,7 +732,7 @@
   </si>
   <si>
     <t>CodeableConcept
-QuantitydatebooleanmarkdownAttachmentReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Binary|0.0.1-snapshot-3|Binary|4.0.1)</t>
+QuantitydatebooleanmarkdownAttachmentReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Binary|Binary)</t>
   </si>
   <si>
     <t>Extension.extension:property.extension:status</t>
@@ -834,12 +825,6 @@
     <t>Extension.extension:routeOfAdministration.extension:code.value[x]</t>
   </si>
   <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-route-codes-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:routeOfAdministration.extension:firstDose</t>
   </si>
   <si>
@@ -1054,7 +1039,7 @@
     <t>A tissue type of an animal.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-target-species-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-target-species-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:targetSpecies.extension:withdrawalPeriod</t>
@@ -1119,7 +1104,7 @@
     <t>Extension.extension.extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-animal-tissue-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-animal-tissue-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:targetSpecies.extension:withdrawalPeriod.extension:value</t>
@@ -1540,8 +1525,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="96.24609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="77.80078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="90.796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.3046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2461,43 +2446,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -2505,13 +2490,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2536,14 +2521,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2612,7 +2597,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2715,7 +2700,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2820,7 +2805,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2863,7 +2848,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2925,7 +2910,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -2951,13 +2936,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3008,7 +2993,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3020,7 +3005,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -3028,13 +3013,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3059,14 +3044,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3135,7 +3120,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -3238,7 +3223,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -3343,7 +3328,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -3386,7 +3371,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3448,7 +3433,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -3474,13 +3459,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3507,13 +3492,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3531,7 +3516,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3543,7 +3528,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -3551,13 +3536,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3582,14 +3567,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3658,7 +3643,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3761,7 +3746,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3866,7 +3851,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3909,7 +3894,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3971,7 +3956,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3997,13 +3982,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4030,13 +4015,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4054,7 +4039,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4066,7 +4051,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -4074,13 +4059,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4105,14 +4090,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4181,7 +4166,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -4284,7 +4269,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -4389,7 +4374,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -4432,7 +4417,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4494,7 +4479,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4520,13 +4505,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4577,7 +4562,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4589,7 +4574,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>121</v>
@@ -4597,13 +4582,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4628,14 +4613,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4704,7 +4689,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4807,7 +4792,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -4912,7 +4897,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -4955,7 +4940,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5017,7 +5002,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -5043,13 +5028,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5100,7 +5085,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5112,7 +5097,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>121</v>
@@ -5120,13 +5105,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5151,14 +5136,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5227,7 +5212,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5330,7 +5315,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -5435,7 +5420,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -5478,7 +5463,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5540,7 +5525,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5566,13 +5551,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5623,7 +5608,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5635,7 +5620,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>121</v>
@@ -5643,13 +5628,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5674,14 +5659,14 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5750,7 +5735,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -5853,7 +5838,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -5958,7 +5943,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -6001,7 +5986,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6063,7 +6048,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6089,13 +6074,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6146,7 +6131,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6158,7 +6143,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>121</v>
@@ -6166,13 +6151,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6197,14 +6182,14 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6273,7 +6258,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -6376,7 +6361,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -6479,13 +6464,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6510,14 +6495,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6586,10 +6571,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6689,10 +6674,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6794,10 +6779,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6837,7 +6822,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6899,10 +6884,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6925,13 +6910,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6982,7 +6967,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6994,7 +6979,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>121</v>
@@ -7002,13 +6987,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7033,14 +7018,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7109,10 +7094,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7212,10 +7197,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7317,10 +7302,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7360,7 +7345,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7422,10 +7407,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7448,13 +7433,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7505,7 +7490,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7517,7 +7502,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>121</v>
@@ -7525,7 +7510,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>109</v>
@@ -7556,14 +7541,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7632,10 +7617,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7735,10 +7720,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7840,10 +7825,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7945,10 +7930,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7971,13 +7956,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8004,43 +7989,43 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y62" t="s" s="2">
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>121</v>
@@ -8048,7 +8033,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8091,7 +8076,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8153,7 +8138,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -8179,13 +8164,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8236,7 +8221,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8248,7 +8233,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>121</v>
@@ -8256,13 +8241,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8287,14 +8272,14 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8363,7 +8348,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -8466,7 +8451,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -8569,13 +8554,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8600,14 +8585,14 @@
         <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8676,10 +8661,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8779,10 +8764,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8884,10 +8869,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8927,7 +8912,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -8989,10 +8974,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9015,13 +9000,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9048,13 +9033,13 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -9072,7 +9057,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9084,7 +9069,7 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>121</v>
@@ -9092,13 +9077,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9123,14 +9108,14 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9199,10 +9184,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9302,10 +9287,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9407,10 +9392,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9450,7 +9435,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9512,10 +9497,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9538,13 +9523,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9595,7 +9580,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -9607,7 +9592,7 @@
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>121</v>
@@ -9615,13 +9600,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9646,14 +9631,14 @@
         <v>94</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9722,10 +9707,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9825,10 +9810,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9930,10 +9915,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9973,7 +9958,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10035,10 +10020,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10061,13 +10046,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10118,7 +10103,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -10130,7 +10115,7 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>121</v>
@@ -10138,13 +10123,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10169,14 +10154,14 @@
         <v>94</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10245,10 +10230,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10348,10 +10333,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10453,10 +10438,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10496,7 +10481,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10558,10 +10543,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10584,13 +10569,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10641,7 +10626,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -10653,7 +10638,7 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>121</v>
@@ -10661,13 +10646,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10692,14 +10677,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10768,10 +10753,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10871,10 +10856,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10976,10 +10961,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11019,7 +11004,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11081,10 +11066,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11107,13 +11092,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11164,7 +11149,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11176,7 +11161,7 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>121</v>
@@ -11184,13 +11169,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11215,14 +11200,14 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11291,10 +11276,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11394,10 +11379,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11499,10 +11484,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11542,7 +11527,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11604,10 +11589,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11630,13 +11615,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11687,7 +11672,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -11699,7 +11684,7 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>121</v>
@@ -11707,13 +11692,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11738,14 +11723,14 @@
         <v>94</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11814,10 +11799,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11917,10 +11902,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12020,13 +12005,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>77</v>
@@ -12051,14 +12036,14 @@
         <v>94</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -12127,10 +12112,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12230,10 +12215,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12335,10 +12320,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12378,7 +12363,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -12440,10 +12425,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12466,13 +12451,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12499,13 +12484,13 @@
         <v>77</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>77</v>
@@ -12523,7 +12508,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -12535,7 +12520,7 @@
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>121</v>
@@ -12543,13 +12528,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>77</v>
@@ -12574,14 +12559,14 @@
         <v>94</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -12650,10 +12635,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12753,10 +12738,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -12856,13 +12841,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>77</v>
@@ -12887,14 +12872,14 @@
         <v>94</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>77</v>
@@ -12963,10 +12948,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13066,10 +13051,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13171,10 +13156,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13214,7 +13199,7 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>77</v>
@@ -13276,10 +13261,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13302,13 +13287,13 @@
         <v>77</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -13335,13 +13320,13 @@
         <v>77</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>77</v>
@@ -13359,7 +13344,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -13371,7 +13356,7 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>121</v>
@@ -13379,13 +13364,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>77</v>
@@ -13410,14 +13395,14 @@
         <v>94</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>77</v>
@@ -13486,10 +13471,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13589,10 +13574,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13694,10 +13679,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13737,7 +13722,7 @@
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S117" t="s" s="2">
         <v>77</v>
@@ -13799,10 +13784,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -13825,13 +13810,13 @@
         <v>77</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -13882,7 +13867,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -13894,7 +13879,7 @@
         <v>77</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>121</v>
@@ -13902,13 +13887,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>77</v>
@@ -13933,14 +13918,14 @@
         <v>94</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>77</v>
@@ -14009,10 +13994,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14112,10 +14097,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14217,10 +14202,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14260,7 +14245,7 @@
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>77</v>
@@ -14322,10 +14307,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14351,10 +14336,10 @@
         <v>87</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -14405,7 +14390,7 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -14417,7 +14402,7 @@
         <v>77</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>121</v>
@@ -14425,10 +14410,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14468,7 +14453,7 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>77</v>
@@ -14530,10 +14515,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14556,13 +14541,13 @@
         <v>77</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -14613,7 +14598,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -14625,7 +14610,7 @@
         <v>77</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>121</v>
@@ -14633,10 +14618,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -14676,7 +14661,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -14738,10 +14723,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -14764,13 +14749,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -14821,7 +14806,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -14833,7 +14818,7 @@
         <v>77</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>121</v>
@@ -14841,7 +14826,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>115</v>
@@ -14884,7 +14869,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -14946,7 +14931,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>123</v>
@@ -14972,13 +14957,13 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -15029,7 +15014,7 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>78</v>
@@ -15041,7 +15026,7 @@
         <v>77</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>121</v>
@@ -15154,10 +15139,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15180,13 +15165,13 @@
         <v>77</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -15237,7 +15222,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>78</v>
@@ -15249,7 +15234,7 @@
         <v>77</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>121</v>

--- a/StructureDefinition-ext-R5-AdministrableProductDefinition.xlsx
+++ b/StructureDefinition-ext-R5-AdministrableProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="375">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -408,6 +408,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -443,7 +452,7 @@
     <t>Extension.extension:formOf.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1)
 </t>
   </si>
   <si>
@@ -484,7 +493,7 @@
     <t>Dose form for a medication, in the form suitable for administering to the patient, after mixing, where necessary.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-administrable-dose-form-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-administrable-dose-form-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:unitOfPresentation</t>
@@ -517,7 +526,7 @@
     <t>The presentation type in which an administrable medicinal product is given to a patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-unit-of-presentation-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-unit-of-presentation-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:producedFrom</t>
@@ -548,7 +557,7 @@
     <t>Extension.extension:producedFrom.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ManufacturedItemDefinition|Basic)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ManufacturedItemDefinition|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -607,7 +616,7 @@
     <t>Extension.extension:device.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -675,8 +684,7 @@
     <t>A code expressing the type of characteristic.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.property.type` is part of an existing definition because parent element `AdministrableProductDefinition.property` requires a cross-version extension.
-Element `AdministrableProductDefinition.property.type` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.property.type` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:property.extension:type.id</t>
@@ -715,8 +723,7 @@
     <t>A value for the characteristic.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.property.value[x]` is part of an existing definition because parent element `AdministrableProductDefinition.property` requires a cross-version extension.
-Element `AdministrableProductDefinition.property.value[x]` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.property.value[x]` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:property.extension:value.id</t>
@@ -732,7 +739,7 @@
   </si>
   <si>
     <t>CodeableConcept
-QuantitydatebooleanmarkdownAttachmentReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Binary|Binary)</t>
+QuantitydatebooleanmarkdownAttachmentReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Binary|0.0.1-snapshot-3|Binary|4.0.1)</t>
   </si>
   <si>
     <t>Extension.extension:property.extension:status</t>
@@ -744,8 +751,7 @@
     <t>The status of characteristic e.g. assigned or pending.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.property.status` is part of an existing definition because parent element `AdministrableProductDefinition.property` requires a cross-version extension.
-Element `AdministrableProductDefinition.property.status` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.property.status` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:property.extension:status.id</t>
@@ -809,8 +815,7 @@
     <t>Coded expression for the route.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.routeOfAdministration.code` is part of an existing definition because parent element `AdministrableProductDefinition.routeOfAdministration` requires a cross-version extension.
-Element `AdministrableProductDefinition.routeOfAdministration.code` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.routeOfAdministration.code` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:code.id</t>
@@ -837,8 +842,7 @@
     <t>The first dose (dose quantity) administered can be specified for the product, using a numerical value and its unit of measurement.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.routeOfAdministration.firstDose` is part of an existing definition because parent element `AdministrableProductDefinition.routeOfAdministration` requires a cross-version extension.
-Element `AdministrableProductDefinition.routeOfAdministration.firstDose` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.routeOfAdministration.firstDose` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:firstDose.id</t>
@@ -869,8 +873,7 @@
     <t>The maximum single dose that can be administered, specified using a numerical value and its unit of measurement.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.routeOfAdministration.maxSingleDose` is part of an existing definition because parent element `AdministrableProductDefinition.routeOfAdministration` requires a cross-version extension.
-Element `AdministrableProductDefinition.routeOfAdministration.maxSingleDose` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.routeOfAdministration.maxSingleDose` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:maxSingleDose.id</t>
@@ -897,8 +900,7 @@
     <t>The maximum dose per day (maximum dose quantity to be administered in any one 24-h period) that can be administered.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.routeOfAdministration.maxDosePerDay` is part of an existing definition because parent element `AdministrableProductDefinition.routeOfAdministration` requires a cross-version extension.
-Element `AdministrableProductDefinition.routeOfAdministration.maxDosePerDay` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.routeOfAdministration.maxDosePerDay` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:maxDosePerDay.id</t>
@@ -925,8 +927,7 @@
     <t>The maximum dose per treatment period that can be administered.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.routeOfAdministration.maxDosePerTreatmentPeriod` is part of an existing definition because parent element `AdministrableProductDefinition.routeOfAdministration` requires a cross-version extension.
-Element `AdministrableProductDefinition.routeOfAdministration.maxDosePerTreatmentPeriod` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.routeOfAdministration.maxDosePerTreatmentPeriod` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:maxDosePerTreatmentPeriod.id</t>
@@ -957,8 +958,7 @@
     <t>The maximum treatment period during which the product can be administered.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.routeOfAdministration.maxTreatmentPeriod` is part of an existing definition because parent element `AdministrableProductDefinition.routeOfAdministration` requires a cross-version extension.
-Element `AdministrableProductDefinition.routeOfAdministration.maxTreatmentPeriod` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.routeOfAdministration.maxTreatmentPeriod` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:maxTreatmentPeriod.id</t>
@@ -989,8 +989,7 @@
     <t>A species for which this route applies.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies` is part of an existing definition because parent element `AdministrableProductDefinition.routeOfAdministration` requires a cross-version extension.
-Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:targetSpecies.id</t>
@@ -1008,8 +1007,7 @@
     <t>Coded expression for the species.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.code` is part of an existing definition because parent element `AdministrableProductDefinition.routeOfAdministration.targetSpecies` requires a cross-version extension.
-Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.code` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.code` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:targetSpecies.extension:code.id</t>
@@ -1039,7 +1037,7 @@
     <t>A tissue type of an animal.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-target-species-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-target-species-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:targetSpecies.extension:withdrawalPeriod</t>
@@ -1054,8 +1052,7 @@
     <t>A species specific time during which consumption of animal product is not appropriate.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod` is part of an existing definition because parent element `AdministrableProductDefinition.routeOfAdministration.targetSpecies` requires a cross-version extension.
-Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:targetSpecies.extension:withdrawalPeriod.id</t>
@@ -1076,8 +1073,7 @@
     <t>Coded expression for the type of tissue for which the withdrawal period applies, e.g. meat, milk.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod.tissue` is part of an existing definition because parent element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod` requires a cross-version extension.
-Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod.tissue` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod.tissue` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:targetSpecies.extension:withdrawalPeriod.extension:tissue.id</t>
@@ -1104,7 +1100,7 @@
     <t>Extension.extension.extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-animal-tissue-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-animal-tissue-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:targetSpecies.extension:withdrawalPeriod.extension:value</t>
@@ -1116,8 +1112,7 @@
     <t>A value for the time.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod.value` is part of an existing definition because parent element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod` requires a cross-version extension.
-Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod.value` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod.value` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:targetSpecies.extension:withdrawalPeriod.extension:value.id</t>
@@ -1144,8 +1139,7 @@
     <t>Extra information about the withdrawal period.</t>
   </si>
   <si>
-    <t>Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod.supportingInformation` is part of an existing definition because parent element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod` requires a cross-version extension.
-Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod.supportingInformation` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
+    <t>Element `AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod.supportingInformation` is not mapped to FHIR R4, since FHIR R5 `AdministrableProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:routeOfAdministration.extension:targetSpecies.extension:withdrawalPeriod.extension:supportingInformation.id</t>
@@ -1515,7 +1509,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="243.14453125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="209.83984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1526,7 +1520,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="90.796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.3046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.71875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2446,13 +2440,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -2470,7 +2464,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2482,7 +2476,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -2490,13 +2484,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2521,14 +2515,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2597,7 +2591,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2700,7 +2694,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2805,7 +2799,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2848,7 +2842,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2910,7 +2904,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -2936,13 +2930,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2993,7 +2987,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3005,7 +2999,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -3013,13 +3007,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3044,14 +3038,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3120,7 +3114,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -3223,7 +3217,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -3328,7 +3322,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -3371,7 +3365,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3433,7 +3427,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -3459,13 +3453,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3492,13 +3486,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3516,7 +3510,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3528,7 +3522,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -3536,13 +3530,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3567,14 +3561,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3643,7 +3637,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3746,7 +3740,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3851,7 +3845,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3894,7 +3888,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3956,7 +3950,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3982,13 +3976,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4015,13 +4009,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4039,7 +4033,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4051,7 +4045,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -4059,13 +4053,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4090,14 +4084,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4166,7 +4160,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -4269,7 +4263,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -4374,7 +4368,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -4417,7 +4411,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4479,7 +4473,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4505,13 +4499,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4562,7 +4556,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4574,7 +4568,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>121</v>
@@ -4582,13 +4576,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4613,14 +4607,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4689,7 +4683,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4792,7 +4786,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -4897,7 +4891,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -4940,7 +4934,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5002,7 +4996,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -5028,13 +5022,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5085,7 +5079,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5097,7 +5091,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>121</v>
@@ -5105,13 +5099,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5136,14 +5130,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5212,7 +5206,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5315,7 +5309,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -5420,7 +5414,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -5463,7 +5457,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5525,7 +5519,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5551,13 +5545,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5608,7 +5602,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5620,7 +5614,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>121</v>
@@ -5628,13 +5622,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5659,14 +5653,14 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5735,7 +5729,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -5838,7 +5832,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -5943,7 +5937,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -5986,7 +5980,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6048,7 +6042,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6074,13 +6068,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6131,7 +6125,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6143,7 +6137,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>121</v>
@@ -6151,13 +6145,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6182,14 +6176,14 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6258,7 +6252,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -6361,7 +6355,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -6464,13 +6458,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6495,14 +6489,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6571,10 +6565,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6674,10 +6668,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6779,10 +6773,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6822,7 +6816,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6884,10 +6878,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6910,13 +6904,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6967,7 +6961,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6979,7 +6973,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>121</v>
@@ -6987,13 +6981,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7018,14 +7012,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7094,10 +7088,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7197,10 +7191,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7302,10 +7296,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7345,7 +7339,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7407,10 +7401,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7433,13 +7427,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7490,7 +7484,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7502,7 +7496,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>121</v>
@@ -7510,7 +7504,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>109</v>
@@ -7541,14 +7535,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7617,10 +7611,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7720,10 +7714,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7825,10 +7819,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7930,10 +7924,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7956,13 +7950,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7989,13 +7983,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8013,7 +8007,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8025,7 +8019,7 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>121</v>
@@ -8033,7 +8027,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8076,7 +8070,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8138,7 +8132,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -8164,13 +8158,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8221,7 +8215,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8233,7 +8227,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>121</v>
@@ -8241,13 +8235,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8272,14 +8266,14 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8348,7 +8342,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -8451,7 +8445,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -8554,13 +8548,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8585,14 +8579,14 @@
         <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8661,10 +8655,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8764,10 +8758,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8869,10 +8863,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8912,7 +8906,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -8974,10 +8968,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9000,13 +8994,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9057,7 +9051,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9069,7 +9063,7 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>121</v>
@@ -9077,13 +9071,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9108,14 +9102,14 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9184,10 +9178,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9287,10 +9281,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9392,10 +9386,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9435,7 +9429,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9497,10 +9491,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9523,13 +9517,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9580,7 +9574,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -9592,7 +9586,7 @@
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>121</v>
@@ -9600,13 +9594,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9631,14 +9625,14 @@
         <v>94</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9707,10 +9701,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9810,10 +9804,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9915,10 +9909,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9958,7 +9952,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10020,10 +10014,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10046,13 +10040,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10103,7 +10097,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -10115,7 +10109,7 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>121</v>
@@ -10123,13 +10117,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10154,14 +10148,14 @@
         <v>94</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10230,10 +10224,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10333,10 +10327,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10438,10 +10432,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10481,7 +10475,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10543,10 +10537,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10569,13 +10563,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10626,7 +10620,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -10638,7 +10632,7 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>121</v>
@@ -10646,13 +10640,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10677,14 +10671,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10753,10 +10747,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10856,10 +10850,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10961,10 +10955,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11004,7 +10998,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11066,10 +11060,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11092,13 +11086,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11149,7 +11143,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11161,7 +11155,7 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>121</v>
@@ -11169,13 +11163,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11200,14 +11194,14 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11276,10 +11270,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11379,10 +11373,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11484,10 +11478,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11527,7 +11521,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11589,10 +11583,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11615,13 +11609,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11672,7 +11666,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -11684,7 +11678,7 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>121</v>
@@ -11692,13 +11686,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11723,14 +11717,14 @@
         <v>94</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11799,10 +11793,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11902,10 +11896,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12005,13 +11999,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>77</v>
@@ -12036,14 +12030,14 @@
         <v>94</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -12112,10 +12106,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12215,10 +12209,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12320,10 +12314,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12363,7 +12357,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -12425,10 +12419,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12451,13 +12445,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12484,13 +12478,13 @@
         <v>77</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>77</v>
@@ -12508,7 +12502,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -12520,7 +12514,7 @@
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>121</v>
@@ -12528,13 +12522,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>77</v>
@@ -12559,14 +12553,14 @@
         <v>94</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -12635,10 +12629,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12738,10 +12732,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -12841,13 +12835,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>77</v>
@@ -12872,14 +12866,14 @@
         <v>94</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>77</v>
@@ -12948,10 +12942,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13051,10 +13045,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13156,10 +13150,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13199,7 +13193,7 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>77</v>
@@ -13261,10 +13255,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13287,13 +13281,13 @@
         <v>77</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -13320,13 +13314,13 @@
         <v>77</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>77</v>
@@ -13344,7 +13338,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -13356,7 +13350,7 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>121</v>
@@ -13364,13 +13358,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>77</v>
@@ -13395,14 +13389,14 @@
         <v>94</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>77</v>
@@ -13471,10 +13465,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13574,10 +13568,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13679,10 +13673,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13722,7 +13716,7 @@
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="S117" t="s" s="2">
         <v>77</v>
@@ -13784,10 +13778,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -13810,13 +13804,13 @@
         <v>77</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -13867,7 +13861,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -13879,7 +13873,7 @@
         <v>77</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>121</v>
@@ -13887,13 +13881,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>77</v>
@@ -13918,14 +13912,14 @@
         <v>94</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>77</v>
@@ -13994,10 +13988,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14097,10 +14091,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14202,10 +14196,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14245,7 +14239,7 @@
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>77</v>
@@ -14307,10 +14301,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14336,10 +14330,10 @@
         <v>87</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -14390,7 +14384,7 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -14402,7 +14396,7 @@
         <v>77</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>121</v>
@@ -14410,10 +14404,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14453,7 +14447,7 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>77</v>
@@ -14515,10 +14509,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14541,13 +14535,13 @@
         <v>77</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -14598,7 +14592,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -14610,7 +14604,7 @@
         <v>77</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>121</v>
@@ -14618,10 +14612,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -14661,7 +14655,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -14723,10 +14717,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -14749,13 +14743,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -14806,7 +14800,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -14818,7 +14812,7 @@
         <v>77</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>121</v>
@@ -14826,7 +14820,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>115</v>
@@ -14869,7 +14863,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -14931,7 +14925,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>123</v>
@@ -14957,13 +14951,13 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -15014,7 +15008,7 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>78</v>
@@ -15026,7 +15020,7 @@
         <v>77</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>121</v>
@@ -15139,10 +15133,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15165,13 +15159,13 @@
         <v>77</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -15222,7 +15216,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>78</v>
@@ -15234,7 +15228,7 @@
         <v>77</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>121</v>
